--- a/ObjectHierarchy.xlsx
+++ b/ObjectHierarchy.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Device</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>InterfaceLayer3</t>
+  </si>
+  <si>
+    <t>NativeVlan</t>
   </si>
 </sst>
 </file>
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,151 +509,156 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F22" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F25" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33" t="s">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F34" t="s">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F35" t="s">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F36" t="s">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F37" t="s">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F38" t="s">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F39" t="s">
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F40" t="s">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
         <v>25</v>
       </c>
     </row>
